--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1944848.980963453</v>
+        <v>-1947708.813198722</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>6.396723986041374</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U2" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.53591563393103</v>
+        <v>179.9896253540986</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.6612299361393</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>41.17124623089875</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>171.9279591655569</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>382.6612299361393</v>
+        <v>382.6612299361384</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724327</v>
+        <v>34.66253762724349</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926214</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>26.50800106237011</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.4646512129552</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238352</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>196.7830908669144</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6990233854882</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>66.76209630730396</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037906</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.2023528106943</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>149.9129010324758</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>221.1109054357809</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>135.2097592813764</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>30.81977766626812</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.27697994470624</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>39.48192853519663</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>101.0202455855125</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>28.5400493088928</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>142.4385057595941</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>105.7906564314211</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>232.630063128001</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>143.5476780877542</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,10 +2324,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>15.0991083532226</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>47.0890000505814</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>66.09841665934279</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897903</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="C2" t="n">
-        <v>204.4218319897903</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="D2" t="n">
-        <v>204.4218319897903</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="E2" t="n">
         <v>204.4218319897903</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4328,22 +4328,22 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4358,22 +4358,22 @@
         <v>589.7227393823975</v>
       </c>
       <c r="T2" t="n">
+        <v>589.7227393823975</v>
+      </c>
+      <c r="U2" t="n">
+        <v>589.7227393823975</v>
+      </c>
+      <c r="V2" t="n">
+        <v>589.7227393823975</v>
+      </c>
+      <c r="W2" t="n">
+        <v>589.7227393823975</v>
+      </c>
+      <c r="X2" t="n">
+        <v>589.7227393823975</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400.3029543659128</v>
-      </c>
-      <c r="U2" t="n">
-        <v>210.8831693494281</v>
-      </c>
-      <c r="V2" t="n">
-        <v>210.8831693494281</v>
-      </c>
-      <c r="W2" t="n">
-        <v>210.8831693494281</v>
-      </c>
-      <c r="X2" t="n">
-        <v>210.8831693494281</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>210.8831693494281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>544.7425907613596</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>544.7425907613596</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>395.8081811001083</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>236.5707260946528</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
@@ -4416,13 +4416,13 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4434,25 +4434,25 @@
         <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>544.7425907613596</v>
+        <v>568.2946462874021</v>
       </c>
       <c r="U3" t="n">
-        <v>544.7425907613596</v>
+        <v>568.2946462874021</v>
       </c>
       <c r="V3" t="n">
-        <v>544.7425907613596</v>
+        <v>568.2946462874021</v>
       </c>
       <c r="W3" t="n">
-        <v>544.7425907613596</v>
+        <v>378.8748612709173</v>
       </c>
       <c r="X3" t="n">
-        <v>544.7425907613596</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>544.7425907613596</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>590.8039984976147</v>
+        <v>1164.56936813104</v>
       </c>
       <c r="C5" t="n">
-        <v>590.8039984976147</v>
+        <v>1164.56936813104</v>
       </c>
       <c r="D5" t="n">
-        <v>590.8039984976147</v>
+        <v>1122.982250726092</v>
       </c>
       <c r="E5" t="n">
-        <v>590.8039984976147</v>
+        <v>737.1939981278475</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1393932798804</v>
+        <v>730.2484973786441</v>
       </c>
       <c r="G5" t="n">
-        <v>30.61289839489115</v>
+        <v>343.7220024936558</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489115</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489115</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="J5" t="n">
-        <v>93.3858082712149</v>
+        <v>93.3858082712145</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235841</v>
+        <v>238.2046462235834</v>
       </c>
       <c r="L5" t="n">
-        <v>454.766982319064</v>
+        <v>454.7669823190624</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643083</v>
+        <v>727.4037457643061</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.06586545389</v>
+        <v>1009.065865453887</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831932</v>
+        <v>1261.696156831929</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855775</v>
+        <v>1442.809264855772</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744557</v>
+        <v>1530.644919744554</v>
       </c>
       <c r="R5" t="n">
-        <v>1495.632255474615</v>
+        <v>1495.632255474611</v>
       </c>
       <c r="S5" t="n">
-        <v>1350.796251643684</v>
+        <v>1495.632255474611</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.796251643684</v>
+        <v>1495.632255474611</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.796251643684</v>
+        <v>1495.632255474611</v>
       </c>
       <c r="V5" t="n">
-        <v>1350.796251643684</v>
+        <v>1164.56936813104</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.796251643684</v>
+        <v>1164.56936813104</v>
       </c>
       <c r="X5" t="n">
-        <v>977.3304933826039</v>
+        <v>1164.56936813104</v>
       </c>
       <c r="Y5" t="n">
-        <v>977.3304933826039</v>
+        <v>1164.56936813104</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383.3189024976589</v>
+        <v>500.3348896154178</v>
       </c>
       <c r="C6" t="n">
-        <v>383.3189024976589</v>
+        <v>473.5591309665591</v>
       </c>
       <c r="D6" t="n">
-        <v>383.3189024976589</v>
+        <v>473.5591309665591</v>
       </c>
       <c r="E6" t="n">
-        <v>224.0814474922034</v>
+        <v>314.3216759611036</v>
       </c>
       <c r="F6" t="n">
-        <v>77.54688951908832</v>
+        <v>167.7871179879886</v>
       </c>
       <c r="G6" t="n">
-        <v>77.54688951908832</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908832</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489115</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275288</v>
+        <v>49.18216652275264</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477046</v>
+        <v>159.0748281477041</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543714</v>
+        <v>353.1616144543705</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642231</v>
+        <v>599.0086077642218</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621741</v>
+        <v>865.7710843621722</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970545</v>
+        <v>1087.586838970543</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422849</v>
+        <v>1246.280471422846</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680486</v>
+        <v>1302.443765680483</v>
       </c>
       <c r="R6" t="n">
-        <v>1251.938857051816</v>
+        <v>1302.443765680483</v>
       </c>
       <c r="S6" t="n">
-        <v>1251.938857051816</v>
+        <v>1157.93969159543</v>
       </c>
       <c r="T6" t="n">
-        <v>1251.938857051816</v>
+        <v>1157.93969159543</v>
       </c>
       <c r="U6" t="n">
-        <v>1053.168058196347</v>
+        <v>1157.93969159543</v>
       </c>
       <c r="V6" t="n">
-        <v>1053.168058196347</v>
+        <v>922.7875833636874</v>
       </c>
       <c r="W6" t="n">
-        <v>798.9307014681456</v>
+        <v>668.5502266354858</v>
       </c>
       <c r="X6" t="n">
-        <v>591.0792012626127</v>
+        <v>668.5502266354858</v>
       </c>
       <c r="Y6" t="n">
-        <v>383.3189024976589</v>
+        <v>668.5502266354858</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="C7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="D7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="E7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="F7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="G7" t="n">
-        <v>134.0636362309346</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="H7" t="n">
-        <v>134.0636362309346</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="I7" t="n">
-        <v>66.62717531446597</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489115</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713239</v>
+        <v>51.49054881713215</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363482</v>
+        <v>108.1125511363477</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055981</v>
+        <v>171.0707966055974</v>
       </c>
       <c r="N7" t="n">
-        <v>240.389561622135</v>
+        <v>240.389561622134</v>
       </c>
       <c r="O7" t="n">
-        <v>284.103571764524</v>
+        <v>284.1035717645229</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354682</v>
+        <v>302.4464881354669</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354682</v>
+        <v>302.4464881354669</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354682</v>
+        <v>182.0400711549676</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354682</v>
+        <v>182.0400711549676</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354682</v>
+        <v>182.0400711549676</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="W7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="X7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
       <c r="Y7" t="n">
-        <v>302.4464881354682</v>
+        <v>30.61289839489107</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.720654864719</v>
+        <v>669.8837537099828</v>
       </c>
       <c r="C8" t="n">
-        <v>1022.758137924308</v>
+        <v>669.8837537099828</v>
       </c>
       <c r="D8" t="n">
-        <v>664.4924393175572</v>
+        <v>669.8837537099828</v>
       </c>
       <c r="E8" t="n">
-        <v>278.704186719313</v>
+        <v>669.8837537099828</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>258.8978489203752</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711894</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1429.949352035184</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>1056.483593774105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1778.320494928841</v>
+        <v>1056.483593774105</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829875</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018606</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406093</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351538</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446203876</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G9" t="n">
-        <v>63.85099446203876</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
-        <v>63.85099446203876</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.552065309184</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333487</v>
+        <v>1204.450475442448</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101744</v>
+        <v>969.2983672107057</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>969.2983672107057</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>969.2983672107057</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030556</v>
+        <v>761.5380684457518</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2591440360034</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2591440360034</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2591440360034</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>480.4086111464628</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>480.4086111464628</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="W10" t="n">
-        <v>418.2486949340208</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2591440360034</v>
+        <v>191.2822901204863</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2591440360034</v>
+        <v>191.2822901204863</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1000.406917066814</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.6143379232838</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.5582272005026</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>533.5582272005026</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.405992109251</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1163.98882207229</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>935.9992711742725</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>715.2066920307424</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,55 +5981,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>653.1541313646966</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>505.2410377823035</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>358.3510902843931</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>191.154990999273</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="26">
@@ -6209,25 +6209,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6236,25 +6236,25 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2532.719182723413</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6938,16 +6938,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7348,34 +7348,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.3371176774392</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>16.10475604642667</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>268.0020520162564</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>73.49127351643222</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>257.6444250803513</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>19.50758019582705</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>142.9753202488368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>125.1956044930013</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>205.0486432732466</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>220.0860577299014</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.288480726625471e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1325641.935691543</v>
+        <v>1325641.935691544</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1325641.935691543</v>
+        <v>1325641.935691544</v>
       </c>
     </row>
     <row r="10">
@@ -26320,22 +26320,22 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
+        <v>100893.3249612508</v>
+      </c>
+      <c r="H2" t="n">
         <v>100893.3249612507</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>100893.3249612507</v>
+      </c>
+      <c r="J2" t="n">
         <v>100893.3249612508</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100893.3249612508</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100893.3249612507</v>
       </c>
       <c r="K2" t="n">
         <v>100893.3249612507</v>
@@ -26344,10 +26344,10 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330355</v>
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996511</v>
+        <v>216004.0468996501</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960611</v>
+        <v>167084.5112960633</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.6701083829</v>
+        <v>50221.6701083826</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064572</v>
+        <v>59784.02116064618</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>196327.1528969924</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468115</v>
+        <v>221112.0537468118</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26433,31 +26433,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186734</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186737</v>
-      </c>
       <c r="L4" t="n">
-        <v>22817.55530496081</v>
+        <v>22817.55530496089</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.55530496085</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22817.55530496085</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496083</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22817.55530496084</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.55530496088</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496084</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790111</v>
+        <v>72511.97598790104</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760043.7853822905</v>
+        <v>-760403.8683980079</v>
       </c>
       <c r="C6" t="n">
-        <v>-406997.8554013283</v>
+        <v>-406997.8554013275</v>
       </c>
       <c r="D6" t="n">
-        <v>-323856.3620077956</v>
+        <v>-323856.3620077976</v>
       </c>
       <c r="E6" t="n">
-        <v>-616499.108478789</v>
+        <v>-616533.8464042232</v>
       </c>
       <c r="F6" t="n">
-        <v>-15055.90090452366</v>
+        <v>-15090.63882995938</v>
       </c>
       <c r="G6" t="n">
-        <v>-15055.90090452373</v>
+        <v>-15090.6388299594</v>
       </c>
       <c r="H6" t="n">
-        <v>-15055.90090452372</v>
+        <v>-15090.63882995943</v>
       </c>
       <c r="I6" t="n">
-        <v>-15055.90090452373</v>
+        <v>-15090.63882995943</v>
       </c>
       <c r="J6" t="n">
-        <v>-64120.8456330683</v>
+        <v>-64155.58355850399</v>
       </c>
       <c r="K6" t="n">
-        <v>-65277.57101290663</v>
+        <v>-65312.30893834201</v>
       </c>
       <c r="L6" t="n">
-        <v>-83135.47108648645</v>
+        <v>-83135.47108648694</v>
       </c>
       <c r="M6" t="n">
-        <v>-180497.8304774386</v>
+        <v>-180497.8304774385</v>
       </c>
       <c r="N6" t="n">
-        <v>-23351.4499258408</v>
+        <v>-23351.44992584077</v>
       </c>
       <c r="O6" t="n">
-        <v>-23351.44992584079</v>
+        <v>-23351.44992584077</v>
       </c>
       <c r="P6" t="n">
-        <v>-23351.44992584083</v>
+        <v>-23351.44992584077</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836622</v>
+        <v>716.4483122836614</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361393</v>
+        <v>382.6612299361384</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707576</v>
+        <v>167.9783713707568</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540219</v>
+        <v>137.2623522540238</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698194</v>
+        <v>195.1356427698185</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900239</v>
+        <v>159.4537267900262</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698195</v>
+        <v>195.1356427698183</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900239</v>
+        <v>159.4537267900257</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698194</v>
+        <v>195.1356427698185</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900239</v>
+        <v>159.4537267900262</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>375.5336460862204</v>
       </c>
       <c r="F2" t="n">
-        <v>390.7712896952847</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>101.7290486622126</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>141.8736821580702</v>
+        <v>15.41997243790266</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,13 +27555,13 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>73.49127351643222</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>68.68604055159726</v>
@@ -27591,19 +27591,19 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07261172734126831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>313.5117953897842</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>234.9480865761545</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76131335875992</v>
+        <v>29.76131335876083</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476413</v>
+        <v>99.43720189476426</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926215</v>
       </c>
       <c r="T5" t="n">
         <v>210.487799365049</v>
@@ -27673,13 +27673,13 @@
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>146.2004979259456</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075472</v>
+        <v>97.35224439075473</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.46465121295525</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238363</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442028</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>29.05690701892593</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>49.8357389964403</v>
+        <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>35.65413415037916</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461285</v>
+        <v>43.32130647461298</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106942</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>201.5013289443857</v>
@@ -27828,7 +27828,7 @@
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>136.3356579982167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.7651403059305</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>276.6609755622504</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>135.7134059835992</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.02248763434261</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>157.7057622244192</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>185.5027527510785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29044,10 +29044,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235825</v>
+        <v>2.880194220235822</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799016</v>
+        <v>29.49678905799012</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756418</v>
+        <v>111.0386876756417</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997406</v>
+        <v>244.4528841997404</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423232</v>
+        <v>366.3715055423228</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098655</v>
+        <v>454.5162494098649</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739843</v>
+        <v>505.7369033739838</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022293</v>
+        <v>513.9202552022288</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247593</v>
+        <v>485.2803239247588</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126873</v>
+        <v>414.1755291126869</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004917</v>
+        <v>311.0285736004914</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868889</v>
+        <v>180.9230001868886</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362394</v>
+        <v>65.63242579362387</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908233</v>
+        <v>12.60805019908232</v>
       </c>
       <c r="U5" t="n">
-        <v>0.230415537618866</v>
+        <v>0.2304155376188657</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044104</v>
+        <v>1.541039766044102</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574174</v>
+        <v>14.88319984574172</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0577287870448</v>
+        <v>53.05772878704474</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594563</v>
+        <v>145.5944631594562</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844112</v>
+        <v>248.844127484411</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754972</v>
+        <v>334.6016386754968</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945958</v>
+        <v>390.4643301945954</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519706</v>
+        <v>400.7987591519702</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306776</v>
+        <v>366.6525622306772</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510008</v>
+        <v>294.2710058510005</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462614</v>
+        <v>196.7123743462612</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158043</v>
+        <v>95.67964442158032</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963498</v>
+        <v>28.62413775963494</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572503</v>
+        <v>6.211471688572496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344805</v>
+        <v>0.1013841951344804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970538</v>
+        <v>1.291955972970537</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513807</v>
+        <v>11.48666310513805</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351402</v>
+        <v>38.85263962351397</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901705</v>
+        <v>91.34128728901695</v>
       </c>
       <c r="K7" t="n">
-        <v>150.101793950577</v>
+        <v>150.1017939505769</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178199</v>
+        <v>192.0786180178197</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902817</v>
+        <v>202.5199712902815</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273917</v>
+        <v>197.7044990273914</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522358</v>
+        <v>182.6121042522356</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036367</v>
+        <v>156.2562024036365</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.183695154833</v>
+        <v>108.1836951548329</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647528</v>
+        <v>58.09103856647521</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258655</v>
+        <v>22.51526909258653</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874116</v>
+        <v>5.52017552087411</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839307</v>
+        <v>0.07047032579839299</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32315,25 +32315,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128142</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305434</v>
+        <v>63.40697967305408</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973426</v>
+        <v>146.2816544973422</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398782</v>
+        <v>218.7498344398777</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467115</v>
+        <v>275.390670146711</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056384</v>
+        <v>284.5071916056378</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030726</v>
+        <v>255.1821125030721</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574178</v>
+        <v>182.9425333574173</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604223</v>
+        <v>88.72288372604189</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278963</v>
+        <v>18.75683649278946</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100523</v>
+        <v>111.002688510052</v>
       </c>
       <c r="L6" t="n">
-        <v>196.047258895623</v>
+        <v>196.0472588956226</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725775</v>
+        <v>248.3302962725771</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686373</v>
+        <v>269.4570470686368</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862331</v>
+        <v>224.0563177862327</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366706</v>
+        <v>160.2965984366703</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023987</v>
+        <v>56.73060026023964</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004167</v>
+        <v>21.0885357800415</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658159</v>
+        <v>57.19394173658137</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267666</v>
+        <v>63.59418734267643</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215848</v>
+        <v>70.01895456215826</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039299</v>
+        <v>44.15556580039279</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448906</v>
+        <v>18.52819835448889</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>311.9917356041954</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>20.54758114885028</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
